--- a/项目需求（基本确定）/游戏制作目标.xlsx
+++ b/项目需求（基本确定）/游戏制作目标.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gittubdesktop\Three-Kindoms\需求说明SRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\项目需求（基本确定）\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB572D9-8065-471D-B674-77D9D1129409}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -200,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,16 +250,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,12 +273,6 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,11 +299,8 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -332,12 +316,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -348,8 +326,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
+  <cellStyles count="5">
     <cellStyle name="标题" xfId="1" builtinId="15"/>
     <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -665,21 +642,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="81.125" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="81.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -690,8 +667,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -701,8 +678,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -710,53 +687,53 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
@@ -764,8 +741,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -773,8 +750,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
@@ -782,8 +759,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
@@ -791,37 +768,37 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
       <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>9</v>
-      </c>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
@@ -829,8 +806,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
@@ -838,8 +815,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>
@@ -847,8 +824,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -858,8 +835,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
       <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
@@ -867,8 +844,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -876,8 +853,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
@@ -887,9 +864,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A14"/>
-    <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A2:A13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目需求（基本确定）/游戏制作目标.xlsx
+++ b/项目需求（基本确定）/游戏制作目标.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\项目需求（基本确定）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB572D9-8065-471D-B674-77D9D1129409}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E52DC-B18E-4560-9B5D-0CB2E29AFD9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,10 +166,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>驱虎吞狼，离间武将，策反武将，蛊惑民众</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>基础目标</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -196,6 +192,9 @@
   <si>
     <t>任命，褒奖，移动，流放，登庸</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>离间武将，蛊惑民众，降低城防，降低商业，降低农业</t>
   </si>
 </sst>
 </file>
@@ -316,13 +315,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,7 +645,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -668,8 +667,8 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>41</v>
+      <c r="A2" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -679,108 +678,108 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>9</v>
-      </c>
+      <c r="A14" s="6"/>
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -794,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,7 +824,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -836,7 +835,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
@@ -845,7 +844,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
@@ -854,7 +853,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
@@ -865,8 +864,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目需求（基本确定）/游戏制作目标.xlsx
+++ b/项目需求（基本确定）/游戏制作目标.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\项目需求（基本确定）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069E52DC-B18E-4560-9B5D-0CB2E29AFD9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB793A-79B1-417B-8C95-FAECC8814037}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -178,23 +178,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>开发农田，开发商业，粮草买卖，提高民忠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>宣战，友好，同盟，联盟，劝降，臣服，侮辱</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>每一位武将拥有自己的属性:统帅，武力，政治，计谋，魅力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>任命，褒奖，移动，流放，登庸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>离间武将，蛊惑民众，降低城防，降低商业，降低农业</t>
+  </si>
+  <si>
+    <t>褒奖，移动，流放，登庸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发农田，开发商业，粮草买卖，提高民忠,提高城防</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一位武将拥有自己的属性:统帅，武力，政治，计谋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -318,10 +318,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +645,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -667,7 +667,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -678,25 +678,25 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -705,25 +705,25 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -732,7 +732,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
         <v>37</v>
       </c>
@@ -741,7 +741,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -750,7 +750,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
@@ -759,7 +759,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
       <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
@@ -768,7 +768,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -779,7 +779,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
@@ -788,16 +788,16 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
@@ -806,7 +806,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
@@ -815,7 +815,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
         <v>14</v>
       </c>

--- a/项目需求（基本确定）/游戏制作目标.xlsx
+++ b/项目需求（基本确定）/游戏制作目标.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\模拟三国\Three-Kindoms\项目需求（基本确定）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BB793A-79B1-417B-8C95-FAECC8814037}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1F762E-0B09-44F5-9BF5-3F5B92A73358}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,152 +48,153 @@
     <t>计策系统</t>
   </si>
   <si>
+    <t>中极目标</t>
+  </si>
+  <si>
+    <t>可操纵的战斗界面</t>
+  </si>
+  <si>
+    <t>可以对战斗进行操作，影响战局</t>
+  </si>
+  <si>
+    <t>通过一定条件可以获得官位</t>
+  </si>
+  <si>
+    <t>多种胜利条件</t>
+  </si>
+  <si>
+    <t>复杂的资源</t>
+  </si>
+  <si>
+    <t>除军粮，兵器以外，各类生活资源也会作为战略资源</t>
+  </si>
+  <si>
+    <t>中等的AI</t>
+  </si>
+  <si>
+    <t>高级目标</t>
+  </si>
+  <si>
+    <t>武将的特殊能力</t>
+  </si>
+  <si>
+    <t>部分武将可以在一定条件下使用特殊技能</t>
+  </si>
+  <si>
+    <t>地图中不仅仅只有城池，还有各类野地，极大扩展战略布置方法和战斗策略</t>
+  </si>
+  <si>
+    <t>排行榜系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的资源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有规律的随机事件</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震，台风，旱灾，涝灾；丰收</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标层次</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标概述</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以根据一定公式和目标成就折合分数，和好友比拼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不仅仅只能通过征服获得胜利，还可以选择复兴汉室，或者组成联合。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>汉室系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>占据皇帝所在城池时，可以使用“挟天子以令诸侯”等特殊操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI会进行合纵连横等策略</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合自动保存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>摁下“下一回合”按钮后，优先进行自动保存</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头衔-官位系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图——城池、野外</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>人事系统</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱，粮草，兵力，民忠，将忠</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>出征，输送，征兵</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>宣战，友好，同盟，联盟，劝降，臣服，侮辱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>离间武将，蛊惑民众，降低城防，降低商业，降低农业</t>
+  </si>
+  <si>
+    <t>褒奖，移动，流放，登庸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发农田，开发商业，粮草买卖，提高民忠,提高城防</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一位武将拥有自己的属性:统帅，武力，政治，计谋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置系统</t>
+  </si>
+  <si>
     <t>简单的AI</t>
-  </si>
-  <si>
-    <t>AI对手会简单分析并进行操作</t>
-  </si>
-  <si>
-    <t>中极目标</t>
-  </si>
-  <si>
-    <t>可操纵的战斗界面</t>
-  </si>
-  <si>
-    <t>可以对战斗进行操作，影响战局</t>
-  </si>
-  <si>
-    <t>通过一定条件可以获得官位</t>
-  </si>
-  <si>
-    <t>多种胜利条件</t>
-  </si>
-  <si>
-    <t>复杂的资源</t>
-  </si>
-  <si>
-    <t>除军粮，兵器以外，各类生活资源也会作为战略资源</t>
-  </si>
-  <si>
-    <t>中等的AI</t>
-  </si>
-  <si>
-    <t>高级目标</t>
-  </si>
-  <si>
-    <t>武将的特殊能力</t>
-  </si>
-  <si>
-    <t>部分武将可以在一定条件下使用特殊技能</t>
-  </si>
-  <si>
-    <t>地图中不仅仅只有城池，还有各类野地，极大扩展战略布置方法和战斗策略</t>
-  </si>
-  <si>
-    <t>排行榜系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>简单的资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>有规律的随机事件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地震，台风，旱灾，涝灾；丰收</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标层次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标概述</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以根据一定公式和目标成就折合分数，和好友比拼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不仅仅只能通过征服获得胜利，还可以选择复兴汉室，或者组成联合。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>汉室系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>占据皇帝所在城池时，可以使用“挟天子以令诸侯”等特殊操作</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AI会进行合纵连横等策略</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合自动保存</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>摁下“下一回合”按钮后，优先进行自动保存</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>头衔-官位系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图——城池、野外</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置界面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以调整音量等设置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人事系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础目标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱，粮草，兵力，民忠，将忠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>出征，输送，征兵</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>宣战，友好，同盟，联盟，劝降，臣服，侮辱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>离间武将，蛊惑民众，降低城防，降低商业，降低农业</t>
-  </si>
-  <si>
-    <t>褒奖，移动，流放，登庸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发农田，开发商业，粮草买卖，提高民忠,提高城防</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一位武将拥有自己的属性:统帅，武力，政治，计谋</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>有电脑玩家可以进行简单操作</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以调整音量等</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -645,7 +646,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -657,18 +658,18 @@
   <sheetData>
     <row r="1" spans="1:3" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -683,7 +684,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -692,7 +693,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,7 +702,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -710,81 +711,81 @@
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,79 +794,79 @@
         <v>5</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A18"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
